--- a/tests_cases/TC-Print2-02.xlsx
+++ b/tests_cases/TC-Print2-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5B5C1-E650-402D-BFD1-74CE0C069FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4670E31B-1569-4074-8195-3B98A533AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -222,13 +222,49 @@
   </si>
   <si>
     <t>Juan Galarraga</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Not tested (Mr or Ms)</t>
+  </si>
+  <si>
+    <t>Not tested (birthday)</t>
+  </si>
+  <si>
+    <t>Not tested (company)</t>
+  </si>
+  <si>
+    <t>Not tested (Aditional information)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,8 +330,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +365,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -525,13 +593,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -612,6 +780,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,26 +831,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{9D0C29B6-0928-FA4D-A8F0-20C320FD52A7}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{3199315A-BB95-DD4D-B688-F37EF362EA2B}"/>
@@ -979,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1201,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1065,7 +1265,7 @@
       <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="22">
         <v>1</v>
       </c>
@@ -1080,7 +1280,7 @@
       <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="22">
         <v>2</v>
       </c>
@@ -1095,7 +1295,7 @@
       <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="22">
         <v>3</v>
       </c>
@@ -1136,22 +1336,22 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -1172,144 +1372,144 @@
       <c r="A19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>1</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>2</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>3</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>4</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>5</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>6</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>7</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>8</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>9</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>10</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1392,181 +1592,513 @@
       <c r="A42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="31"/>
+      <c r="D42" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>1</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>2</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>3</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="43"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>4</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>5</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43" t="s">
+      <c r="C47" s="28"/>
+      <c r="D47" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>6</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>7</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="44"/>
-    </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>8</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="44"/>
-    </row>
-    <row r="51" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>9</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="44"/>
-    </row>
-    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>10</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="43"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="54"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="54"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="54"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="54"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="54"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="54"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="54"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="54"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="54"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="54"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="54"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="54"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="54"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="94">
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -1578,12 +2110,40 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests_cases/TC-Print2-02.xlsx
+++ b/tests_cases/TC-Print2-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4670E31B-1569-4074-8195-3B98A533AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C2050-69A8-4766-9FFD-C6E24AFB03CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -287,6 +287,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -780,85 +781,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1181,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77:H77"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1201,10 +1202,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1265,7 +1266,7 @@
       <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="22">
         <v>1</v>
       </c>
@@ -1280,7 +1281,7 @@
       <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="22">
         <v>2</v>
       </c>
@@ -1295,7 +1296,7 @@
       <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="22">
         <v>3</v>
       </c>
@@ -1336,22 +1337,22 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -1372,144 +1373,144 @@
       <c r="A19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>1</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>2</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>3</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>4</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>5</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>6</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>7</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>8</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>9</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>10</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1592,195 +1593,195 @@
       <c r="A42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>1</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>2</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>3</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>4</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>5</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>6</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>7</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="54"/>
     </row>
     <row r="50" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>8</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="29"/>
+      <c r="E50" s="54"/>
     </row>
     <row r="51" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>9</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="54"/>
     </row>
     <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>10</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="28"/>
+      <c r="E52" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="51"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52" t="s">
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
@@ -1789,12 +1790,12 @@
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="54"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
@@ -1803,12 +1804,12 @@
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="54"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
@@ -1817,12 +1818,12 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="54"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
@@ -1831,12 +1832,12 @@
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="54"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
@@ -1845,12 +1846,12 @@
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="54"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -1859,12 +1860,12 @@
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
@@ -1873,12 +1874,12 @@
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="54"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
@@ -1887,12 +1888,12 @@
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="54"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
@@ -1901,12 +1902,12 @@
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="54"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
@@ -1915,12 +1916,12 @@
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="54"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
@@ -1929,12 +1930,12 @@
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="54"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
@@ -1943,12 +1944,12 @@
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="54"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
@@ -1957,12 +1958,12 @@
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="54"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
@@ -1971,12 +1972,12 @@
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="54"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
@@ -1985,12 +1986,12 @@
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
@@ -1999,12 +2000,12 @@
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="54"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
@@ -2013,12 +2014,12 @@
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="54"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
@@ -2027,12 +2028,12 @@
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="54"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
@@ -2041,75 +2042,33 @@
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="54"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="B46:C46"/>
@@ -2126,24 +2085,66 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:H76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests_cases/TC-Print2-02.xlsx
+++ b/tests_cases/TC-Print2-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C2050-69A8-4766-9FFD-C6E24AFB03CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9795631-81DF-410F-89BD-88E3F545A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Verificar que pueda crearse una cuenta correctamente</t>
   </si>
   <si>
-    <t>HU-2, HU-3</t>
-  </si>
-  <si>
     <t>Clicker crear cuenta</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Not tested (Aditional information)</t>
+  </si>
+  <si>
+    <t>PE-16</t>
   </si>
 </sst>
 </file>
@@ -745,12 +745,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,89 +772,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:H63"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,10 +1202,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1249,808 +1249,887 @@
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="22">
+      <c r="C8" s="32"/>
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>2</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22" t="s">
+    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>3</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>3</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="22">
-        <v>3</v>
-      </c>
-      <c r="E10" s="22" t="s">
+    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>4</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="22">
-        <v>4</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="D12" s="22">
+      <c r="A12" s="19"/>
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>41</v>
+      <c r="E12" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>6</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>55</v>
+      <c r="E13" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="17"/>
+      <c r="B17" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="54"/>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>1</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51" t="s">
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>2</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="51"/>
-    </row>
-    <row r="21" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>2</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="51"/>
-    </row>
-    <row r="22" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>3</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>4</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>4</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51" t="s">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>5</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>6</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>7</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>8</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>9</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="51"/>
-    </row>
-    <row r="25" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>6</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>7</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="54"/>
-    </row>
-    <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>8</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="54"/>
-    </row>
-    <row r="28" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <v>9</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="54" t="s">
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>10</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="54"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>10</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="22">
+      <c r="D33" s="20">
         <v>1</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="20">
+        <v>2</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="22">
+    <row r="35" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D35" s="20">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="20">
+        <v>4</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="20">
+        <v>5</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="20">
+        <v>6</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="20">
+        <v>7</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="20">
+        <v>8</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>1</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
         <v>2</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="D35" s="22">
+      <c r="B44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
         <v>3</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="B45" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>4</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="22">
-        <v>4</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>5</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="22">
-        <v>5</v>
-      </c>
-      <c r="E37" s="22" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>6</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>7</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="22">
-        <v>6</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>8</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>9</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>10</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="22">
-        <v>7</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="22">
-        <v>8</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="50"/>
-    </row>
-    <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <v>1</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="51"/>
-    </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>2</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="51"/>
-    </row>
-    <row r="45" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>3</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="51"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>4</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="51"/>
-    </row>
-    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>5</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="51"/>
-    </row>
-    <row r="48" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>6</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="51"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>7</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="54"/>
-    </row>
-    <row r="50" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>8</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="54"/>
-    </row>
-    <row r="51" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>9</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="54"/>
-    </row>
-    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>10</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="52"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="52"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="52"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="52"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="52"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28" t="s">
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="52"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="52"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="52"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="52"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="52"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="52"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28" t="s">
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="52"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="52"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="52"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="52"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="52"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="52"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="52"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="30"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="30"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="95">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B51:C51"/>
@@ -2067,84 +2146,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:H76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
